--- a/Code/Results/Cases/Case_4_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.5135607674763</v>
+        <v>11.84718356105861</v>
       </c>
       <c r="C2">
-        <v>8.164781448886279</v>
+        <v>4.607969009783151</v>
       </c>
       <c r="D2">
-        <v>7.094433728524661</v>
+        <v>6.008113633237622</v>
       </c>
       <c r="E2">
-        <v>13.443709163043</v>
+        <v>11.42787351104395</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>42.17517402072814</v>
+        <v>43.96017917940841</v>
       </c>
       <c r="H2">
-        <v>12.9120585227827</v>
+        <v>17.76681824632242</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.77397529172438</v>
+        <v>11.2041859675038</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.21017428275466</v>
+        <v>14.85762540428166</v>
       </c>
       <c r="N2">
-        <v>14.30617183345315</v>
+        <v>20.95012636998845</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.49098810293932</v>
+        <v>11.59417118009497</v>
       </c>
       <c r="C3">
-        <v>7.629113872577513</v>
+        <v>4.378386650634695</v>
       </c>
       <c r="D3">
-        <v>6.596127594654512</v>
+        <v>5.893884132112629</v>
       </c>
       <c r="E3">
-        <v>12.60928906897525</v>
+        <v>11.21331066153708</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>40.57413133539582</v>
+        <v>43.66106301643755</v>
       </c>
       <c r="H3">
-        <v>12.72321480881128</v>
+        <v>17.77027154000032</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.91220752307916</v>
+        <v>11.03704569432956</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.16843962912443</v>
+        <v>14.70109058664244</v>
       </c>
       <c r="N3">
-        <v>14.44865376049231</v>
+        <v>20.9952902600068</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.82934031302286</v>
+        <v>11.43962585447226</v>
       </c>
       <c r="C4">
-        <v>7.283605817257063</v>
+        <v>4.239167254690751</v>
       </c>
       <c r="D4">
-        <v>6.279417928601605</v>
+        <v>5.824472146972985</v>
       </c>
       <c r="E4">
-        <v>12.08141430866862</v>
+        <v>11.08326795785615</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>39.59986895124621</v>
+        <v>43.48824968428494</v>
       </c>
       <c r="H4">
-        <v>12.61530821830525</v>
+        <v>17.77557050980009</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.35513553954814</v>
+        <v>10.9363879636816</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.49613617738797</v>
+        <v>14.60836868834186</v>
       </c>
       <c r="N4">
-        <v>14.54098182612016</v>
+        <v>21.02490336762466</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.55112763318006</v>
+        <v>11.37695002007681</v>
       </c>
       <c r="C5">
-        <v>7.13859972660954</v>
+        <v>4.181410050280204</v>
       </c>
       <c r="D5">
-        <v>6.164918414220939</v>
+        <v>5.796411029342147</v>
       </c>
       <c r="E5">
-        <v>11.86253186060392</v>
+        <v>11.03077860664354</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>39.20544672544527</v>
+        <v>43.4206094098477</v>
       </c>
       <c r="H5">
-        <v>12.57331545654494</v>
+        <v>17.77852863282153</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.12103191053577</v>
+        <v>10.89591868280674</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.21385472762721</v>
+        <v>14.57147759095519</v>
       </c>
       <c r="N5">
-        <v>14.57978756415789</v>
+        <v>21.03744425920668</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.5044095056632</v>
+        <v>11.36656398124762</v>
       </c>
       <c r="C6">
-        <v>7.114266558557169</v>
+        <v>4.171760500965948</v>
       </c>
       <c r="D6">
-        <v>6.145765366796966</v>
+        <v>5.791766323156175</v>
       </c>
       <c r="E6">
-        <v>11.82596395828515</v>
+        <v>11.02209547167543</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>39.14012222371699</v>
+        <v>43.40954737108147</v>
       </c>
       <c r="H6">
-        <v>12.56646088073298</v>
+        <v>17.77906804743442</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.08172903677295</v>
+        <v>10.88923356845601</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.16647742090137</v>
+        <v>14.56540699980219</v>
       </c>
       <c r="N6">
-        <v>14.58630158117069</v>
+        <v>21.03955525148174</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.82562311994672</v>
+        <v>11.43877922740148</v>
       </c>
       <c r="C7">
-        <v>7.281667293799258</v>
+        <v>4.238392340892828</v>
       </c>
       <c r="D7">
-        <v>6.277883229685216</v>
+        <v>5.82409273843981</v>
       </c>
       <c r="E7">
-        <v>12.07847742598146</v>
+        <v>11.08255792587158</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>39.59453857463793</v>
+        <v>43.48732612818817</v>
       </c>
       <c r="H7">
-        <v>12.61473393038427</v>
+        <v>17.77560717098609</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.35200713461893</v>
+        <v>10.9358398837873</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.49236300838944</v>
+        <v>14.6078674901939</v>
       </c>
       <c r="N7">
-        <v>14.54150043625168</v>
+        <v>21.02507058211328</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.16793355535069</v>
+        <v>11.75983727072639</v>
       </c>
       <c r="C8">
-        <v>7.983507610242917</v>
+        <v>4.523191926076421</v>
       </c>
       <c r="D8">
-        <v>6.925974547983866</v>
+        <v>5.968602132476984</v>
       </c>
       <c r="E8">
-        <v>13.15929339590151</v>
+        <v>11.35358549540856</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>41.62153087237612</v>
+        <v>43.85482783637823</v>
       </c>
       <c r="H8">
-        <v>12.84525057145177</v>
+        <v>17.7673489755486</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.48259557894232</v>
+        <v>11.14618093646257</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.85770501889757</v>
+        <v>14.80297361806484</v>
       </c>
       <c r="N8">
-        <v>14.3542709463689</v>
+        <v>20.96530820150575</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.53648362294393</v>
+        <v>12.39152986490939</v>
       </c>
       <c r="C9">
-        <v>9.229935087857646</v>
+        <v>5.156641304608186</v>
       </c>
       <c r="D9">
-        <v>8.081125004129637</v>
+        <v>6.255894674870112</v>
       </c>
       <c r="E9">
-        <v>15.34356101946084</v>
+        <v>11.8951972288346</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.65172345173566</v>
+        <v>44.65887393134859</v>
       </c>
       <c r="H9">
-        <v>13.3629698276702</v>
+        <v>17.77638960343712</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.48129358908215</v>
+        <v>11.57182237032753</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.2806932845067</v>
+        <v>15.21058949250362</v>
       </c>
       <c r="N9">
-        <v>14.0274289767556</v>
+        <v>20.86304991218057</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.12233837879438</v>
+        <v>12.85138721278451</v>
       </c>
       <c r="C10">
-        <v>10.06964859270468</v>
+        <v>5.579553303646978</v>
       </c>
       <c r="D10">
-        <v>8.855533955422491</v>
+        <v>6.466936844336139</v>
       </c>
       <c r="E10">
-        <v>16.88424128376685</v>
+        <v>12.29486835931426</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>48.63173618505153</v>
+        <v>45.2965378365577</v>
       </c>
       <c r="H10">
-        <v>13.78594500160484</v>
+        <v>17.79841937752349</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.82175724634278</v>
+        <v>11.88928615961119</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.91313769076492</v>
+        <v>15.52267961914675</v>
       </c>
       <c r="N10">
-        <v>13.81489528724548</v>
+        <v>20.79702639448914</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.81181764491266</v>
+        <v>13.05857666525306</v>
       </c>
       <c r="C11">
-        <v>10.43597619838373</v>
+        <v>5.761174528986896</v>
       </c>
       <c r="D11">
-        <v>9.192477038859804</v>
+        <v>6.562451769428831</v>
       </c>
       <c r="E11">
-        <v>17.55915002906655</v>
+        <v>12.47616967752937</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>49.9899312189283</v>
+        <v>45.59590550802315</v>
       </c>
       <c r="H11">
-        <v>13.98820866449086</v>
+        <v>17.81177671163715</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.40505604740959</v>
+        <v>12.03405428156417</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.62553162783979</v>
+        <v>15.6668180392527</v>
       </c>
       <c r="N11">
-        <v>13.72500673550433</v>
+        <v>20.76896830761623</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.06845142780853</v>
+        <v>13.13666185008296</v>
       </c>
       <c r="C12">
-        <v>10.57252122945672</v>
+        <v>5.828405224071227</v>
       </c>
       <c r="D12">
-        <v>9.317931667887503</v>
+        <v>6.598512131344357</v>
       </c>
       <c r="E12">
-        <v>17.8111738167955</v>
+        <v>12.54467905768266</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>50.50458315167589</v>
+        <v>45.71052264976407</v>
       </c>
       <c r="H12">
-        <v>14.06627041773069</v>
+        <v>17.8173133155316</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.62224410597185</v>
+        <v>12.08886933456682</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.89111981107511</v>
+        <v>15.72166213403682</v>
       </c>
       <c r="N12">
-        <v>13.69202515705601</v>
+        <v>20.75862777349555</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.01337670899586</v>
+        <v>13.1198626942375</v>
       </c>
       <c r="C13">
-        <v>10.54320923823344</v>
+        <v>5.813994570129085</v>
       </c>
       <c r="D13">
-        <v>9.291006744798207</v>
+        <v>6.590751333609429</v>
       </c>
       <c r="E13">
-        <v>17.75705073162315</v>
+        <v>12.52993191818117</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>50.39372849771415</v>
+        <v>45.6857834129285</v>
       </c>
       <c r="H13">
-        <v>14.04939218444513</v>
+        <v>17.8160996519146</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.57563115632057</v>
+        <v>12.07706505198339</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.8341037511763</v>
+        <v>15.70983961268815</v>
       </c>
       <c r="N13">
-        <v>13.69907990784947</v>
+        <v>20.76084213699654</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.83301957333977</v>
+        <v>13.06500872361941</v>
       </c>
       <c r="C14">
-        <v>10.44725296332138</v>
+        <v>5.766736591735604</v>
       </c>
       <c r="D14">
-        <v>9.202840718593034</v>
+        <v>6.565420877785488</v>
       </c>
       <c r="E14">
-        <v>17.57995419926738</v>
+        <v>12.48180930179378</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>50.03226517153614</v>
+        <v>45.60531049935599</v>
       </c>
       <c r="H14">
-        <v>13.99460108848553</v>
+        <v>17.81222263036448</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.42299759246195</v>
+        <v>12.038564374526</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.64746449865851</v>
+        <v>15.67132512870421</v>
       </c>
       <c r="N14">
-        <v>13.72227163177144</v>
+        <v>20.76811188320893</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.72196937755954</v>
+        <v>13.03135807718369</v>
       </c>
       <c r="C15">
-        <v>10.38819612499969</v>
+        <v>5.737588558692434</v>
       </c>
       <c r="D15">
-        <v>9.148560088362322</v>
+        <v>6.549889922636947</v>
       </c>
       <c r="E15">
-        <v>17.47102096178991</v>
+        <v>12.45231178261439</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>49.81090219615879</v>
+        <v>45.5561792015525</v>
       </c>
       <c r="H15">
-        <v>13.96123292461893</v>
+        <v>17.80991011144129</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>16.32902755521159</v>
+        <v>12.01497924539724</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.5326033784943</v>
+        <v>15.64776654532603</v>
       </c>
       <c r="N15">
-        <v>13.73661749504214</v>
+        <v>20.77260186505677</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.07664798619959</v>
+        <v>12.83779921651114</v>
       </c>
       <c r="C16">
-        <v>10.04539943104011</v>
+        <v>5.567467527134764</v>
       </c>
       <c r="D16">
-        <v>8.833210906524823</v>
+        <v>6.460681521218969</v>
       </c>
       <c r="E16">
-        <v>16.83962732529805</v>
+        <v>12.28300337692739</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>48.54302158120144</v>
+        <v>45.27715338568597</v>
       </c>
       <c r="H16">
-        <v>13.77292914404474</v>
+        <v>17.7976134741847</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.78311385406099</v>
+        <v>11.87982747301146</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.86598682082941</v>
+        <v>15.51329919795424</v>
       </c>
       <c r="N16">
-        <v>13.82091304069632</v>
+        <v>20.79889984717345</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.67267781973781</v>
+        <v>12.71848217136109</v>
       </c>
       <c r="C17">
-        <v>9.831145236938497</v>
+        <v>5.460348409684499</v>
       </c>
       <c r="D17">
-        <v>8.635871941532315</v>
+        <v>6.405801601326915</v>
       </c>
       <c r="E17">
-        <v>16.44576430006706</v>
+        <v>12.17895498498312</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>47.7658233167665</v>
+        <v>45.10830160516966</v>
       </c>
       <c r="H17">
-        <v>13.65996911315666</v>
+        <v>17.79092352570903</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.441507844246</v>
+        <v>11.7969659933763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.44941306391558</v>
+        <v>15.43132755604359</v>
       </c>
       <c r="N17">
-        <v>13.87441943880984</v>
+        <v>20.8155391739391</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.43731038564818</v>
+        <v>12.64967049157888</v>
       </c>
       <c r="C18">
-        <v>9.706432557043781</v>
+        <v>5.39772299014702</v>
       </c>
       <c r="D18">
-        <v>8.520919644587446</v>
+        <v>6.374192275107752</v>
       </c>
       <c r="E18">
-        <v>16.21676972673984</v>
+        <v>12.11906510595813</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>47.31903853309173</v>
+        <v>45.0120622049988</v>
       </c>
       <c r="H18">
-        <v>13.59592118029314</v>
+        <v>17.78738972852109</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.24252479226273</v>
+        <v>11.74934268224518</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.20695628451324</v>
+        <v>15.3843865850256</v>
       </c>
       <c r="N18">
-        <v>13.90582896214691</v>
+        <v>20.82529568038481</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.35709733943644</v>
+        <v>12.62634317218403</v>
       </c>
       <c r="C19">
-        <v>9.663950709230374</v>
+        <v>5.376344998943984</v>
       </c>
       <c r="D19">
-        <v>8.481748082151777</v>
+        <v>6.363483580673702</v>
       </c>
       <c r="E19">
-        <v>16.13880919436592</v>
+        <v>12.09878211344157</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>47.16780847759988</v>
+        <v>44.97963076750494</v>
       </c>
       <c r="H19">
-        <v>13.57439279861362</v>
+        <v>17.78624722135257</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.17471981889058</v>
+        <v>11.73322624037219</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.12436954780508</v>
+        <v>15.36853023530957</v>
       </c>
       <c r="N19">
-        <v>13.91657031971533</v>
+        <v>20.82863100500348</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.71599217739385</v>
+        <v>12.73120331689662</v>
       </c>
       <c r="C20">
-        <v>9.854105538062722</v>
+        <v>5.471856284348101</v>
       </c>
       <c r="D20">
-        <v>8.657028416926023</v>
+        <v>6.411648487215143</v>
       </c>
       <c r="E20">
-        <v>16.48794450946038</v>
+        <v>12.19003619951855</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>47.84853319478444</v>
+        <v>45.12618571462488</v>
       </c>
       <c r="H20">
-        <v>13.67189794350396</v>
+        <v>17.7916031832912</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.47813036807014</v>
+        <v>11.80578338200069</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.49405234637764</v>
+        <v>15.44003251848137</v>
       </c>
       <c r="N20">
-        <v>13.86865742249175</v>
+        <v>20.81374863643737</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.88611466734994</v>
+        <v>13.08113143833428</v>
       </c>
       <c r="C21">
-        <v>10.47549602579768</v>
+        <v>5.780659320697326</v>
       </c>
       <c r="D21">
-        <v>9.228794689894682</v>
+        <v>6.572864305588581</v>
       </c>
       <c r="E21">
-        <v>17.63206652343853</v>
+        <v>12.49594858647837</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>50.13842653775487</v>
+        <v>45.62891400954753</v>
       </c>
       <c r="H21">
-        <v>14.01065424445621</v>
+        <v>17.8133484315038</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.46792907678303</v>
+        <v>12.04987354475578</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.70239702061586</v>
+        <v>15.68263105028903</v>
       </c>
       <c r="N21">
-        <v>13.71543027024661</v>
+        <v>20.76596886034761</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.62494925399676</v>
+        <v>13.30762009690683</v>
       </c>
       <c r="C22">
-        <v>10.86897375684925</v>
+        <v>5.973474424388752</v>
       </c>
       <c r="D22">
-        <v>9.590047980588873</v>
+        <v>6.67757588760881</v>
       </c>
       <c r="E22">
-        <v>18.35922639365401</v>
+        <v>12.69500101455035</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>51.63699089874302</v>
+        <v>45.96473990712865</v>
       </c>
       <c r="H22">
-        <v>14.2406425725402</v>
+        <v>17.8303482881415</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.09334604707088</v>
+        <v>12.2093437940431</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.46784469503663</v>
+        <v>15.84268752266658</v>
       </c>
       <c r="N22">
-        <v>13.62149570847175</v>
+        <v>20.73640016727259</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.232942314987</v>
+        <v>13.18696774278426</v>
       </c>
       <c r="C23">
-        <v>10.66009574575191</v>
+        <v>5.87138832693219</v>
       </c>
       <c r="D23">
-        <v>9.398353870022969</v>
+        <v>6.621761307342642</v>
       </c>
       <c r="E23">
-        <v>17.97294590886252</v>
+        <v>12.58886631586474</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>50.83698641817844</v>
+        <v>45.78486668926012</v>
       </c>
       <c r="H23">
-        <v>14.11708814498714</v>
+        <v>17.82102053105088</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.7614735504484</v>
+        <v>12.1242548063798</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.06147332602012</v>
+        <v>15.75714106730004</v>
       </c>
       <c r="N23">
-        <v>13.67103274218102</v>
+        <v>20.75202972348823</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.6964194832366</v>
+        <v>12.72545274925275</v>
       </c>
       <c r="C24">
-        <v>9.843729973089198</v>
+        <v>5.466656817633562</v>
       </c>
       <c r="D24">
-        <v>8.647468250027387</v>
+        <v>6.409005288235901</v>
       </c>
       <c r="E24">
-        <v>16.46888281631606</v>
+        <v>12.18502659834087</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>47.81113994021166</v>
+        <v>45.11809769900693</v>
       </c>
       <c r="H24">
-        <v>13.6665021376493</v>
+        <v>17.7912949369783</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.46158139832932</v>
+        <v>11.80179698999812</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.47388016803354</v>
+        <v>15.43609642299415</v>
       </c>
       <c r="N24">
-        <v>13.8712604176787</v>
+        <v>20.81455754548334</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.92332059764479</v>
+        <v>12.22100100601765</v>
       </c>
       <c r="C25">
-        <v>8.906351079057309</v>
+        <v>4.991345469042464</v>
       </c>
       <c r="D25">
-        <v>7.781918719944396</v>
+        <v>6.178009603297473</v>
       </c>
       <c r="E25">
-        <v>14.75206274482805</v>
+        <v>11.74805609059154</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44.55729836514157</v>
+        <v>44.43281778965409</v>
       </c>
       <c r="H25">
-        <v>13.21561893834629</v>
+        <v>17.77124058204236</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.96346939593755</v>
+        <v>11.45560596218655</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.65172847449384</v>
+        <v>15.09790853213653</v>
       </c>
       <c r="N25">
-        <v>14.11124635874025</v>
+        <v>20.88911455479964</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_89/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_89/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.84718356105861</v>
+        <v>14.51356076747632</v>
       </c>
       <c r="C2">
-        <v>4.607969009783151</v>
+        <v>8.164781448886034</v>
       </c>
       <c r="D2">
-        <v>6.008113633237622</v>
+        <v>7.094433728524644</v>
       </c>
       <c r="E2">
-        <v>11.42787351104395</v>
+        <v>13.44370916304299</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.96017917940841</v>
+        <v>42.17517402072829</v>
       </c>
       <c r="H2">
-        <v>17.76681824632242</v>
+        <v>12.91205852278275</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.2041859675038</v>
+        <v>12.77397529172436</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.85762540428166</v>
+        <v>15.2101742827547</v>
       </c>
       <c r="N2">
-        <v>20.95012636998845</v>
+        <v>14.30617183345318</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.59417118009497</v>
+        <v>13.49098810293935</v>
       </c>
       <c r="C3">
-        <v>4.378386650634695</v>
+        <v>7.62911387257737</v>
       </c>
       <c r="D3">
-        <v>5.893884132112629</v>
+        <v>6.59612759465441</v>
       </c>
       <c r="E3">
-        <v>11.21331066153708</v>
+        <v>12.60928906897523</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>43.66106301643755</v>
+        <v>40.57413133539588</v>
       </c>
       <c r="H3">
-        <v>17.77027154000032</v>
+        <v>12.72321480881127</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.03704569432956</v>
+        <v>11.91220752307917</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.70109058664244</v>
+        <v>14.16843962912445</v>
       </c>
       <c r="N3">
-        <v>20.9952902600068</v>
+        <v>14.44865376049239</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.43962585447226</v>
+        <v>12.82934031302294</v>
       </c>
       <c r="C4">
-        <v>4.239167254690751</v>
+        <v>7.283605817256968</v>
       </c>
       <c r="D4">
-        <v>5.824472146972985</v>
+        <v>6.279417928601613</v>
       </c>
       <c r="E4">
-        <v>11.08326795785615</v>
+        <v>12.08141430866861</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.48824968428494</v>
+        <v>39.59986895124615</v>
       </c>
       <c r="H4">
-        <v>17.77557050980009</v>
+        <v>12.61530821830515</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.9363879636816</v>
+        <v>11.35513553954818</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.60836868834186</v>
+        <v>13.49613617738798</v>
       </c>
       <c r="N4">
-        <v>21.02490336762466</v>
+        <v>14.54098182612014</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.37695002007681</v>
+        <v>12.55112763318014</v>
       </c>
       <c r="C5">
-        <v>4.181410050280204</v>
+        <v>7.138599726609372</v>
       </c>
       <c r="D5">
-        <v>5.796411029342147</v>
+        <v>6.164918414220965</v>
       </c>
       <c r="E5">
-        <v>11.03077860664354</v>
+        <v>11.86253186060389</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.4206094098477</v>
+        <v>39.20544672544548</v>
       </c>
       <c r="H5">
-        <v>17.77852863282153</v>
+        <v>12.57331545654506</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.89591868280674</v>
+        <v>11.12103191053576</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.57147759095519</v>
+        <v>13.21385472762721</v>
       </c>
       <c r="N5">
-        <v>21.03744425920668</v>
+        <v>14.57978756415796</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.36656398124762</v>
+        <v>12.50440950566325</v>
       </c>
       <c r="C6">
-        <v>4.171760500965948</v>
+        <v>7.114266558556976</v>
       </c>
       <c r="D6">
-        <v>5.791766323156175</v>
+        <v>6.145765366796986</v>
       </c>
       <c r="E6">
-        <v>11.02209547167543</v>
+        <v>11.82596395828516</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.40954737108147</v>
+        <v>39.14012222371694</v>
       </c>
       <c r="H6">
-        <v>17.77906804743442</v>
+        <v>12.56646088073289</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.88923356845601</v>
+        <v>11.08172903677292</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.56540699980219</v>
+        <v>13.16647742090137</v>
       </c>
       <c r="N6">
-        <v>21.03955525148174</v>
+        <v>14.58630158117057</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.43877922740148</v>
+        <v>12.82562311994668</v>
       </c>
       <c r="C7">
-        <v>4.238392340892828</v>
+        <v>7.281667293799337</v>
       </c>
       <c r="D7">
-        <v>5.82409273843981</v>
+        <v>6.277883229685223</v>
       </c>
       <c r="E7">
-        <v>11.08255792587158</v>
+        <v>12.07847742598143</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.48732612818817</v>
+        <v>39.59453857463794</v>
       </c>
       <c r="H7">
-        <v>17.77560717098609</v>
+        <v>12.61473393038433</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.9358398837873</v>
+        <v>11.35200713461895</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.6078674901939</v>
+        <v>13.49236300838945</v>
       </c>
       <c r="N7">
-        <v>21.02507058211328</v>
+        <v>14.54150043625172</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.75983727072639</v>
+        <v>14.16793355535066</v>
       </c>
       <c r="C8">
-        <v>4.523191926076421</v>
+        <v>7.983507610242706</v>
       </c>
       <c r="D8">
-        <v>5.968602132476984</v>
+        <v>6.925974547983928</v>
       </c>
       <c r="E8">
-        <v>11.35358549540856</v>
+        <v>13.15929339590151</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>43.85482783637823</v>
+        <v>41.62153087237628</v>
       </c>
       <c r="H8">
-        <v>17.7673489755486</v>
+        <v>12.84525057145184</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.14618093646257</v>
+        <v>12.48259557894223</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.80297361806484</v>
+        <v>14.85770501889755</v>
       </c>
       <c r="N8">
-        <v>20.96530820150575</v>
+        <v>14.35427094636892</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.39152986490939</v>
+        <v>16.53648362294393</v>
       </c>
       <c r="C9">
-        <v>5.156641304608186</v>
+        <v>9.22993508785742</v>
       </c>
       <c r="D9">
-        <v>6.255894674870112</v>
+        <v>8.081125004129678</v>
       </c>
       <c r="E9">
-        <v>11.8951972288346</v>
+        <v>15.34356101946082</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>44.65887393134859</v>
+        <v>45.65172345173563</v>
       </c>
       <c r="H9">
-        <v>17.77638960343712</v>
+        <v>13.36296982767025</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.57182237032753</v>
+        <v>14.48129358908211</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.21058949250362</v>
+        <v>17.28069328450666</v>
       </c>
       <c r="N9">
-        <v>20.86304991218057</v>
+        <v>14.0274289767556</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.85138721278451</v>
+        <v>18.12233837879427</v>
       </c>
       <c r="C10">
-        <v>5.579553303646978</v>
+        <v>10.06964859270475</v>
       </c>
       <c r="D10">
-        <v>6.466936844336139</v>
+        <v>8.855533955422622</v>
       </c>
       <c r="E10">
-        <v>12.29486835931426</v>
+        <v>16.88424128376692</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>45.2965378365577</v>
+        <v>48.63173618505151</v>
       </c>
       <c r="H10">
-        <v>17.79841937752349</v>
+        <v>13.78594500160482</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.88928615961119</v>
+        <v>15.82175724634271</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.52267961914675</v>
+        <v>18.91313769076495</v>
       </c>
       <c r="N10">
-        <v>20.79702639448914</v>
+        <v>13.81489528724557</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.05857666525306</v>
+        <v>18.81181764491271</v>
       </c>
       <c r="C11">
-        <v>5.761174528986896</v>
+        <v>10.43597619838382</v>
       </c>
       <c r="D11">
-        <v>6.562451769428831</v>
+        <v>9.192477038859789</v>
       </c>
       <c r="E11">
-        <v>12.47616967752937</v>
+        <v>17.55915002906649</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.59590550802315</v>
+        <v>49.9899312189282</v>
       </c>
       <c r="H11">
-        <v>17.81177671163715</v>
+        <v>13.9882086644908</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.03405428156417</v>
+        <v>16.40505604740967</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.6668180392527</v>
+        <v>19.62553162783983</v>
       </c>
       <c r="N11">
-        <v>20.76896830761623</v>
+        <v>13.7250067355043</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.13666185008296</v>
+        <v>19.06845142780854</v>
       </c>
       <c r="C12">
-        <v>5.828405224071227</v>
+        <v>10.57252122945678</v>
       </c>
       <c r="D12">
-        <v>6.598512131344357</v>
+        <v>9.317931667887503</v>
       </c>
       <c r="E12">
-        <v>12.54467905768266</v>
+        <v>17.81117381679555</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.71052264976407</v>
+        <v>50.50458315167589</v>
       </c>
       <c r="H12">
-        <v>17.8173133155316</v>
+        <v>14.06627041773066</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.08886933456682</v>
+        <v>16.62224410597187</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.72166213403682</v>
+        <v>19.89111981107515</v>
       </c>
       <c r="N12">
-        <v>20.75862777349555</v>
+        <v>13.69202515705599</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.1198626942375</v>
+        <v>19.01337670899582</v>
       </c>
       <c r="C13">
-        <v>5.813994570129085</v>
+        <v>10.54320923823329</v>
       </c>
       <c r="D13">
-        <v>6.590751333609429</v>
+        <v>9.291006744798281</v>
       </c>
       <c r="E13">
-        <v>12.52993191818117</v>
+        <v>17.75705073162322</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.6857834129285</v>
+        <v>50.39372849771413</v>
       </c>
       <c r="H13">
-        <v>17.8160996519146</v>
+        <v>14.04939218444517</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.07706505198339</v>
+        <v>16.57563115632052</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.70983961268815</v>
+        <v>19.83410375117628</v>
       </c>
       <c r="N13">
-        <v>20.76084213699654</v>
+        <v>13.69907990784947</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.06500872361941</v>
+        <v>18.83301957333976</v>
       </c>
       <c r="C14">
-        <v>5.766736591735604</v>
+        <v>10.44725296332153</v>
       </c>
       <c r="D14">
-        <v>6.565420877785488</v>
+        <v>9.20284071859299</v>
       </c>
       <c r="E14">
-        <v>12.48180930179378</v>
+        <v>17.57995419926738</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.60531049935599</v>
+        <v>50.03226517153617</v>
       </c>
       <c r="H14">
-        <v>17.81222263036448</v>
+        <v>13.99460108848553</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.038564374526</v>
+        <v>16.42299759246194</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.67132512870421</v>
+        <v>19.64746449865851</v>
       </c>
       <c r="N14">
-        <v>20.76811188320893</v>
+        <v>13.72227163177147</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.03135807718369</v>
+        <v>18.72196937755947</v>
       </c>
       <c r="C15">
-        <v>5.737588558692434</v>
+        <v>10.38819612499972</v>
       </c>
       <c r="D15">
-        <v>6.549889922636947</v>
+        <v>9.148560088362379</v>
       </c>
       <c r="E15">
-        <v>12.45231178261439</v>
+        <v>17.47102096178992</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.5561792015525</v>
+        <v>49.81090219615876</v>
       </c>
       <c r="H15">
-        <v>17.80991011144129</v>
+        <v>13.96123292461892</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.01497924539724</v>
+        <v>16.32902755521157</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.64776654532603</v>
+        <v>19.53260337849429</v>
       </c>
       <c r="N15">
-        <v>20.77260186505677</v>
+        <v>13.73661749504215</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.83779921651114</v>
+        <v>18.07664798619952</v>
       </c>
       <c r="C16">
-        <v>5.567467527134764</v>
+        <v>10.04539943103991</v>
       </c>
       <c r="D16">
-        <v>6.460681521218969</v>
+        <v>8.833210906524808</v>
       </c>
       <c r="E16">
-        <v>12.28300337692739</v>
+        <v>16.83962732529807</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>45.27715338568597</v>
+        <v>48.54302158120135</v>
       </c>
       <c r="H16">
-        <v>17.7976134741847</v>
+        <v>13.77292914404476</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.87982747301146</v>
+        <v>15.78311385406092</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.51329919795424</v>
+        <v>18.86598682082941</v>
       </c>
       <c r="N16">
-        <v>20.79889984717345</v>
+        <v>13.82091304069633</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.71848217136109</v>
+        <v>17.67267781973777</v>
       </c>
       <c r="C17">
-        <v>5.460348409684499</v>
+        <v>9.831145236938585</v>
       </c>
       <c r="D17">
-        <v>6.405801601326915</v>
+        <v>8.635871941532256</v>
       </c>
       <c r="E17">
-        <v>12.17895498498312</v>
+        <v>16.44576430006706</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>45.10830160516966</v>
+        <v>47.76582331676648</v>
       </c>
       <c r="H17">
-        <v>17.79092352570903</v>
+        <v>13.65996911315675</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.7969659933763</v>
+        <v>15.44150784424597</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.43132755604359</v>
+        <v>18.44941306391554</v>
       </c>
       <c r="N17">
-        <v>20.8155391739391</v>
+        <v>13.87441943880986</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.64967049157888</v>
+        <v>17.43731038564823</v>
       </c>
       <c r="C18">
-        <v>5.39772299014702</v>
+        <v>9.706432557043914</v>
       </c>
       <c r="D18">
-        <v>6.374192275107752</v>
+        <v>8.520919644587511</v>
       </c>
       <c r="E18">
-        <v>12.11906510595813</v>
+        <v>16.21676972673982</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>45.0120622049988</v>
+        <v>47.31903853309188</v>
       </c>
       <c r="H18">
-        <v>17.78738972852109</v>
+        <v>13.59592118029314</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.74934268224518</v>
+        <v>15.24252479226277</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.3843865850256</v>
+        <v>18.20695628451326</v>
       </c>
       <c r="N18">
-        <v>20.82529568038481</v>
+        <v>13.90582896214691</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.62634317218403</v>
+        <v>17.35709733943639</v>
       </c>
       <c r="C19">
-        <v>5.376344998943984</v>
+        <v>9.663950709230379</v>
       </c>
       <c r="D19">
-        <v>6.363483580673702</v>
+        <v>8.48174808215175</v>
       </c>
       <c r="E19">
-        <v>12.09878211344157</v>
+        <v>16.13880919436594</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>44.97963076750494</v>
+        <v>47.16780847759986</v>
       </c>
       <c r="H19">
-        <v>17.78624722135257</v>
+        <v>13.57439279861362</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.73322624037219</v>
+        <v>15.17471981889054</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.36853023530957</v>
+        <v>18.12436954780508</v>
       </c>
       <c r="N19">
-        <v>20.82863100500348</v>
+        <v>13.91657031971532</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.73120331689662</v>
+        <v>17.71599217739384</v>
       </c>
       <c r="C20">
-        <v>5.471856284348101</v>
+        <v>9.854105538062573</v>
       </c>
       <c r="D20">
-        <v>6.411648487215143</v>
+        <v>8.657028416926032</v>
       </c>
       <c r="E20">
-        <v>12.19003619951855</v>
+        <v>16.48794450946037</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>45.12618571462488</v>
+        <v>47.8485331947846</v>
       </c>
       <c r="H20">
-        <v>17.7916031832912</v>
+        <v>13.67189794350404</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.80578338200069</v>
+        <v>15.47813036807013</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.44003251848137</v>
+        <v>18.49405234637761</v>
       </c>
       <c r="N20">
-        <v>20.81374863643737</v>
+        <v>13.86865742249182</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.08113143833428</v>
+        <v>18.88611466734991</v>
       </c>
       <c r="C21">
-        <v>5.780659320697326</v>
+        <v>10.47549602579766</v>
       </c>
       <c r="D21">
-        <v>6.572864305588581</v>
+        <v>9.228794689894601</v>
       </c>
       <c r="E21">
-        <v>12.49594858647837</v>
+        <v>17.63206652343847</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.62891400954753</v>
+        <v>50.1384265377549</v>
       </c>
       <c r="H21">
-        <v>17.8133484315038</v>
+        <v>14.01065424445622</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.04987354475578</v>
+        <v>16.46792907678302</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.68263105028903</v>
+        <v>19.70239702061582</v>
       </c>
       <c r="N21">
-        <v>20.76596886034761</v>
+        <v>13.71543027024672</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.30762009690683</v>
+        <v>19.62494925399674</v>
       </c>
       <c r="C22">
-        <v>5.973474424388752</v>
+        <v>10.86897375684912</v>
       </c>
       <c r="D22">
-        <v>6.67757588760881</v>
+        <v>9.590047980588984</v>
       </c>
       <c r="E22">
-        <v>12.69500101455035</v>
+        <v>18.359226393654</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.96473990712865</v>
+        <v>51.63699089874297</v>
       </c>
       <c r="H22">
-        <v>17.8303482881415</v>
+        <v>14.24064257254021</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.2093437940431</v>
+        <v>17.09334604707088</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>15.84268752266658</v>
+        <v>20.46784469503659</v>
       </c>
       <c r="N22">
-        <v>20.73640016727259</v>
+        <v>13.62149570847182</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.18696774278426</v>
+        <v>19.23294231498699</v>
       </c>
       <c r="C23">
-        <v>5.87138832693219</v>
+        <v>10.66009574575182</v>
       </c>
       <c r="D23">
-        <v>6.621761307342642</v>
+        <v>9.398353870022911</v>
       </c>
       <c r="E23">
-        <v>12.58886631586474</v>
+        <v>17.97294590886253</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.78486668926012</v>
+        <v>50.83698641817846</v>
       </c>
       <c r="H23">
-        <v>17.82102053105088</v>
+        <v>14.11708814498716</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.1242548063798</v>
+        <v>16.76147355044838</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.75714106730004</v>
+        <v>20.06147332602009</v>
       </c>
       <c r="N23">
-        <v>20.75202972348823</v>
+        <v>13.67103274218103</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.72545274925275</v>
+        <v>17.69641948323661</v>
       </c>
       <c r="C24">
-        <v>5.466656817633562</v>
+        <v>9.843729973089188</v>
       </c>
       <c r="D24">
-        <v>6.409005288235901</v>
+        <v>8.647468250027373</v>
       </c>
       <c r="E24">
-        <v>12.18502659834087</v>
+        <v>16.46888281631606</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>45.11809769900693</v>
+        <v>47.81113994021167</v>
       </c>
       <c r="H24">
-        <v>17.7912949369783</v>
+        <v>13.66650213764929</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.80179698999812</v>
+        <v>15.46158139832932</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.43609642299415</v>
+        <v>18.47388016803355</v>
       </c>
       <c r="N24">
-        <v>20.81455754548334</v>
+        <v>13.8712604176787</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.22100100601765</v>
+        <v>15.92332059764485</v>
       </c>
       <c r="C25">
-        <v>4.991345469042464</v>
+        <v>8.906351079057199</v>
       </c>
       <c r="D25">
-        <v>6.178009603297473</v>
+        <v>7.781918719944357</v>
       </c>
       <c r="E25">
-        <v>11.74805609059154</v>
+        <v>14.75206274482806</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44.43281778965409</v>
+        <v>44.55729836514161</v>
       </c>
       <c r="H25">
-        <v>17.77124058204236</v>
+        <v>13.21561893834631</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.45560596218655</v>
+        <v>13.96346939593758</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.09790853213653</v>
+        <v>16.65172847449388</v>
       </c>
       <c r="N25">
-        <v>20.88911455479964</v>
+        <v>14.11124635874026</v>
       </c>
       <c r="O25">
         <v>0</v>
